--- a/data/fg_corn.xlsx
+++ b/data/fg_corn.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="31">
   <si>
     <t xml:space="preserve">Activity database</t>
   </si>
@@ -76,52 +76,46 @@
     <t xml:space="preserve">technosphere</t>
   </si>
   <si>
+    <t xml:space="preserve">Succinic acid production (corn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1233832cc1df14a136611b1a0062f42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pre-treatment (corn)</t>
   </si>
   <si>
+    <t xml:space="preserve">b635ca39e2aa6e05606f27d9bb208684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e343521ccabc453ec59738b1d5678118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc7a675d8adacd2cdc6fbda5a3bbe616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacterial fermentation (corn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b0043a9ba35dea3f767abb1cf200032f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3dccd5e5d7913c2342a277e76070ea29</t>
+  </si>
+  <si>
     <t xml:space="preserve">d5d680bed29f0d204ee68eb9f8867d0e</t>
   </si>
   <si>
-    <t xml:space="preserve">f8a41872402cf4a2bd8087c1c1005b7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42a88037a800886bf4d8a354d139923d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m3</t>
+    <t xml:space="preserve">7c5b261b86dd95f4da1f21a3d4f8c4e4</t>
   </si>
   <si>
     <t xml:space="preserve">fa54dea702f85be5e0973dfae7f6e59c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0043a9ba35dea3f767abb1cf200032f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacterial fermentation (corn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b635ca39e2aa6e05606f27d9bb208684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc7a675d8adacd2cdc6fbda5a3bbe616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c96878c3cdb7a02e88f72871d11acaee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6e199e3cc577ca27b046f0a9898192c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9c3b3e95f4ff6ec6e4287107d2aa489d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinic acid production (corn)</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,7 @@
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,6 +165,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,12 +248,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -303,14 +308,13 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.87"/>
@@ -385,7 +389,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -397,22 +401,22 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -421,10 +425,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
@@ -436,13 +440,13 @@
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -453,10 +457,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -468,13 +472,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>1.29</v>
+        <v>0.013</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -485,25 +489,25 @@
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="7" t="n">
-        <v>25.3</v>
+        <v>0.023</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>12</v>
@@ -517,10 +521,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>12</v>
@@ -531,14 +535,14 @@
       <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>23</v>
+      <c r="G7" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>0.9</v>
+        <v>0.395</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -567,10 +571,10 @@
         <v>23</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>0.9</v>
+        <v>0.41</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -581,10 +585,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -595,14 +599,14 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
+      <c r="G9" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="H9" s="7" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -613,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>12</v>
@@ -627,14 +631,14 @@
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <v>22.23</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -645,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -660,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
@@ -692,79 +696,79 @@
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>-0.011</v>
+        <v>0.9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <v>-0.395</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -773,12 +777,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -788,9 +792,9 @@
         <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
@@ -799,122 +803,154 @@
       <c r="J15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K18"/>
+  <autoFilter ref="A1:K19"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
